--- a/src/assets/Files/SampleParentImport.xlsx
+++ b/src/assets/Files/SampleParentImport.xlsx
@@ -90,7 +90,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> dd/mm/yyyy</t>
+      <t xml:space="preserve"> mm/dd/yyyy</t>
     </r>
     <r>
       <rPr>
@@ -517,7 +517,7 @@
   <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
